--- a/Template_Pengiriman.xlsx
+++ b/Template_Pengiriman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GOS_FxApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87DD556-1C30-4017-8EEE-05D1289C58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438DD90-2FE7-4F50-AD81-97D7D2A48CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C5FCF093-64A8-4ED7-8265-FAD67D0393ED}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>REMAKS</t>
   </si>
   <si>
-    <t>FILTER PENCARIAN</t>
-  </si>
-  <si>
     <t>TANGGAL PENGIRIMAN</t>
   </si>
   <si>
     <t>LAPORAN PENGIRIMAN</t>
+  </si>
+  <si>
+    <t>SET FILTER</t>
   </si>
 </sst>
 </file>
@@ -75,13 +75,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="24"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -118,9 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CD8A98-90B7-4CE6-BFF1-E6EA80C32819}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,32 +561,49 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -602,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
